--- a/public/data/QEDMAT.xlsx
+++ b/public/data/QEDMAT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>کد قدمت</t>
   </si>
@@ -22,49 +23,44 @@
     <t>تعداد</t>
   </si>
   <si>
-    <t>قدمت</t>
+    <t>نوع</t>
   </si>
   <si>
     <t>بایر</t>
   </si>
   <si>
-    <t>درحال ساخت</t>
-  </si>
-  <si>
-    <t>سال1-5</t>
-  </si>
-  <si>
-    <t>سال5-15</t>
-  </si>
-  <si>
-    <t>سال15-30</t>
-  </si>
-  <si>
-    <t>سال30-50</t>
-  </si>
-  <si>
-    <t>غیر قابل سکونت</t>
+    <t>در حال ساخت</t>
+  </si>
+  <si>
+    <t>1-5 سال</t>
+  </si>
+  <si>
+    <t>5-15 سال</t>
+  </si>
+  <si>
+    <t>15-30 سال</t>
+  </si>
+  <si>
+    <t>30-50 سال</t>
+  </si>
+  <si>
+    <t>غیر قابل سکونت بالای 50 سال</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,47 +68,28 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -191,6 +168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,6 +203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,21 +379,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -423,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -434,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -445,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -456,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -467,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -478,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -489,13 +473,24 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>